--- a/documents/farine et potiron.xlsx
+++ b/documents/farine et potiron.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frede\Desktop\examen\back examen\farine webecom 02092025 23h00\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frede\Desktop\examen\back examen\farine webecom\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369ECB20-F032-41AE-BF59-AA706AD988DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72986E10-3158-4560-86F0-1C7EE5B01E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROLEUR" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>ROLE</t>
   </si>
@@ -101,6 +101,48 @@
   </si>
   <si>
     <t>amene a la page recette public</t>
+  </si>
+  <si>
+    <t>acceuil</t>
+  </si>
+  <si>
+    <t>formulaire_inscription</t>
+  </si>
+  <si>
+    <t>dirige vers la page que on veut</t>
+  </si>
+  <si>
+    <t>formulaire_login</t>
+  </si>
+  <si>
+    <t>formulaire inscription</t>
+  </si>
+  <si>
+    <t>formulaire login</t>
+  </si>
+  <si>
+    <t>InfoProfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulaire pour changer </t>
+  </si>
+  <si>
+    <t>Mesrecette</t>
+  </si>
+  <si>
+    <t>afiche tu=out les recette de l'user</t>
+  </si>
+  <si>
+    <t>monProfil</t>
+  </si>
+  <si>
+    <t>affiche les info et direction</t>
+  </si>
+  <si>
+    <t>recette_public</t>
+  </si>
+  <si>
+    <t>affiche les recette public</t>
   </si>
 </sst>
 </file>
@@ -465,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,12 +636,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>